--- a/data/trans_orig/P55S_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P55S_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CBADC7E-8AF0-4FF3-87A4-A63FB7A50981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AC065CE6-3478-4209-B99B-950EF66FE1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3FB63552-F53D-40E2-A3A5-A03238D725F7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{76ECD87B-0CBB-4F83-9F9A-2E351493F269}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="483">
   <si>
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2007 (Tasa respuesta: 5,34%)</t>
   </si>
@@ -1088,397 +1088,406 @@
     <t>Población según el tipo de ayuda que tiene con sus dificultades en las actividades instrumentales de la vida diaria en 2023 (Tasa respuesta: 10,61%)</t>
   </si>
   <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>59,08%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>51,1%</t>
-  </si>
-  <si>
-    <t>28,42%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>72,31%</t>
+  </si>
+  <si>
+    <t>51,37%</t>
+  </si>
+  <si>
+    <t>41,67%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
   </si>
   <si>
     <t>7,61%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>43,46%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>64,81%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>59,62%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>61,67%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>56,25%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>59,81%</t>
+  </si>
+  <si>
+    <t>58,0%</t>
+  </si>
+  <si>
+    <t>54,64%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>2,98%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
     <t>6,47%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
   </si>
 </sst>
 </file>
@@ -1890,7 +1899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD5671E-BE43-4F5C-AB44-5A04A1CA6AF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819E584C-A781-49C4-8748-51A827A42E6C}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3049,7 +3058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4EED863-A042-44E6-879E-434730C748CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2290412D-5132-41C2-8830-FB1AC92B8A69}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4208,7 +4217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C71EDD6D-1CEB-4590-9A72-2AFC44C085F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2E3EFE-78F5-446A-8327-FBC65A9454A6}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5367,7 +5376,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6013EAF6-5C0C-429F-83F9-043F2459FF06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D196BF-E825-401F-AAF4-52D0B13C2521}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5488,46 +5497,46 @@
         <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>10764</v>
+        <v>10184</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>349</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H4" s="7">
         <v>61</v>
       </c>
       <c r="I4" s="7">
-        <v>37378</v>
+        <v>31707</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M4" s="7">
         <v>79</v>
       </c>
       <c r="N4" s="7">
-        <v>48142</v>
+        <v>41891</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,46 +5548,46 @@
         <v>38</v>
       </c>
       <c r="D5" s="7">
-        <v>25117</v>
+        <v>23760</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H5" s="7">
         <v>143</v>
       </c>
       <c r="I5" s="7">
-        <v>73520</v>
+        <v>66875</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M5" s="7">
         <v>181</v>
       </c>
       <c r="N5" s="7">
-        <v>98637</v>
+        <v>90635</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5590,46 +5599,46 @@
         <v>100</v>
       </c>
       <c r="D6" s="7">
-        <v>63537</v>
+        <v>60579</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H6" s="7">
         <v>298</v>
       </c>
       <c r="I6" s="7">
-        <v>165043</v>
+        <v>149361</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M6" s="7">
         <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>228580</v>
+        <v>209941</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5641,46 +5650,46 @@
         <v>6</v>
       </c>
       <c r="D7" s="7">
-        <v>3286</v>
+        <v>3133</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H7" s="7">
         <v>21</v>
       </c>
       <c r="I7" s="7">
-        <v>10747</v>
+        <v>9727</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>14033</v>
+        <v>12860</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5692,7 +5701,7 @@
         <v>162</v>
       </c>
       <c r="D8" s="7">
-        <v>102704</v>
+        <v>97656</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>49</v>
@@ -5707,7 +5716,7 @@
         <v>523</v>
       </c>
       <c r="I8" s="7">
-        <v>286688</v>
+        <v>257671</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>49</v>
@@ -5722,7 +5731,7 @@
         <v>685</v>
       </c>
       <c r="N8" s="7">
-        <v>389392</v>
+        <v>355327</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>49</v>
@@ -5745,46 +5754,46 @@
         <v>10</v>
       </c>
       <c r="D9" s="7">
-        <v>6741</v>
+        <v>6337</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H9" s="7">
         <v>19</v>
       </c>
       <c r="I9" s="7">
-        <v>11216</v>
+        <v>9904</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>388</v>
-      </c>
       <c r="L9" s="7" t="s">
-        <v>389</v>
+        <v>93</v>
       </c>
       <c r="M9" s="7">
         <v>29</v>
       </c>
       <c r="N9" s="7">
-        <v>17957</v>
+        <v>16241</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>390</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5796,46 +5805,46 @@
         <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>7666</v>
+        <v>7146</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H10" s="7">
         <v>29</v>
       </c>
       <c r="I10" s="7">
-        <v>14764</v>
+        <v>13399</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
       </c>
       <c r="N10" s="7">
-        <v>22430</v>
+        <v>20546</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,46 +5856,46 @@
         <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>27421</v>
+        <v>26266</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H11" s="7">
         <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>30702</v>
+        <v>28077</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
       </c>
       <c r="N11" s="7">
-        <v>58123</v>
+        <v>54343</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,43 +5907,43 @@
         <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>3498</v>
+        <v>3269</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
       <c r="I12" s="7">
-        <v>3636</v>
+        <v>3281</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
       </c>
       <c r="N12" s="7">
-        <v>7135</v>
+        <v>6551</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>416</v>
@@ -5949,7 +5958,7 @@
         <v>70</v>
       </c>
       <c r="D13" s="7">
-        <v>45327</v>
+        <v>43018</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
@@ -5964,7 +5973,7 @@
         <v>116</v>
       </c>
       <c r="I13" s="7">
-        <v>60318</v>
+        <v>54662</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>49</v>
@@ -5979,7 +5988,7 @@
         <v>186</v>
       </c>
       <c r="N13" s="7">
-        <v>105645</v>
+        <v>97680</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>49</v>
@@ -6002,46 +6011,46 @@
         <v>6</v>
       </c>
       <c r="D14" s="7">
-        <v>4214</v>
+        <v>3887</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>417</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
       </c>
       <c r="I14" s="7">
-        <v>4740</v>
+        <v>4355</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M14" s="7">
         <v>15</v>
       </c>
       <c r="N14" s="7">
-        <v>8954</v>
+        <v>8242</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,37 +6071,37 @@
         <v>22</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
       </c>
       <c r="I15" s="7">
-        <v>1927</v>
+        <v>1813</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M15" s="7">
         <v>3</v>
       </c>
       <c r="N15" s="7">
-        <v>1927</v>
+        <v>1813</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>173</v>
+        <v>429</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,46 +6113,46 @@
         <v>15</v>
       </c>
       <c r="D16" s="7">
-        <v>10011</v>
+        <v>9236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>433</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
       </c>
       <c r="I16" s="7">
-        <v>6617</v>
+        <v>6103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M16" s="7">
         <v>28</v>
       </c>
       <c r="N16" s="7">
-        <v>16628</v>
+        <v>15339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6155,46 +6164,46 @@
         <v>3</v>
       </c>
       <c r="D17" s="7">
-        <v>2051</v>
+        <v>1997</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>224</v>
+        <v>441</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1943</v>
+        <v>1716</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>3994</v>
+        <v>3712</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6206,7 +6215,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="7">
-        <v>16276</v>
+        <v>15120</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>49</v>
@@ -6221,7 +6230,7 @@
         <v>28</v>
       </c>
       <c r="I18" s="7">
-        <v>15227</v>
+        <v>13987</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>49</v>
@@ -6236,7 +6245,7 @@
         <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>31503</v>
+        <v>29106</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>49</v>
@@ -6259,46 +6268,46 @@
         <v>34</v>
       </c>
       <c r="D19" s="7">
-        <v>21718</v>
+        <v>20408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>347</v>
+        <v>451</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>53334</v>
+        <v>45966</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
       </c>
       <c r="N19" s="7">
-        <v>75052</v>
+        <v>66374</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>452</v>
+        <v>321</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6310,46 +6319,46 @@
         <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>32783</v>
+        <v>30906</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="H20" s="7">
         <v>175</v>
       </c>
       <c r="I20" s="7">
-        <v>90211</v>
+        <v>82087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="M20" s="7">
         <v>226</v>
       </c>
       <c r="N20" s="7">
-        <v>122995</v>
+        <v>112993</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,46 +6370,46 @@
         <v>157</v>
       </c>
       <c r="D21" s="7">
-        <v>100969</v>
+        <v>96081</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="H21" s="7">
         <v>373</v>
       </c>
       <c r="I21" s="7">
-        <v>202362</v>
+        <v>183542</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="M21" s="7">
         <v>530</v>
       </c>
       <c r="N21" s="7">
-        <v>303331</v>
+        <v>279623</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,46 +6421,46 @@
         <v>14</v>
       </c>
       <c r="D22" s="7">
-        <v>8836</v>
+        <v>8399</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>476</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>472</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
       </c>
       <c r="I22" s="7">
-        <v>16326</v>
+        <v>14724</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="M22" s="7">
         <v>44</v>
       </c>
       <c r="N22" s="7">
-        <v>25162</v>
+        <v>23123</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>478</v>
+        <v>41</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6463,7 +6472,7 @@
         <v>256</v>
       </c>
       <c r="D23" s="7">
-        <v>164307</v>
+        <v>155794</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>49</v>
@@ -6478,7 +6487,7 @@
         <v>667</v>
       </c>
       <c r="I23" s="7">
-        <v>362233</v>
+        <v>326320</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>49</v>
@@ -6493,7 +6502,7 @@
         <v>923</v>
       </c>
       <c r="N23" s="7">
-        <v>526540</v>
+        <v>482113</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>49</v>
